--- a/data/scraping.xlsx
+++ b/data/scraping.xlsx
@@ -1,79 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="summary"/>
-    <sheet r:id="rId2" sheetId="2" name="url"/>
-    <sheet r:id="rId3" sheetId="3" name="output"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="url" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="output" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>玄人志向 NVIDIA GeForce RTX3060Ti 搭載 グラフィックボード GDDR6 8GB GALAKURO GAMINGシリーズ GG-RTX3060Ti-E8GB/DF/LHR</t>
-  </si>
-  <si>
-    <t>MSI GeForce RTX 3070 Ti VENTUS 3X 8G OC グラフィックスボード VD7701</t>
-  </si>
-  <si>
-    <t>MSI GeForce RTX 3080 VENTUS 3X PLUS 10G OC LHR グラフィックスボード VD7850</t>
-  </si>
-  <si>
-    <t>東芝 内蔵HDD 3.5インチ 3TB PCモデル DT01ACA300-2YW 【国内正規代理店品】 2年保証 SATA 6Gbps対応</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/dp/B097F34YGG/?coliid=I2GIS0XBQVISFV&amp;colid=101ESIAGBYQW7&amp;psc=1&amp;ref_=lv_ov_lig_dp_it</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/dp/B096HQC9Y5/?coliid=I3MVQBGE0PPKGJ&amp;colid=101ESIAGBYQW7&amp;psc=1&amp;ref_=lv_ov_lig_dp_it</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/dp/B09FSWGS7L/?coliid=I20SIB1DS1IY7T&amp;colid=101ESIAGBYQW7&amp;psc=1&amp;ref_=lv_ov_lig_dp_it</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/dp/B06Y275P7D/?coliid=I28QQE23N0LSFH&amp;colid=101ESIAGBYQW7&amp;psc=1&amp;ref_=lv_ov_lig_dp_it</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,54 +67,117 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -431,56 +465,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="11" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="10"/>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.co.jp/dp/B097F34YGG/?coliid=I2GIS0XBQVISFV&amp;colid=101ESIAGBYQW7&amp;psc=1&amp;ref_=lv_ov_lig_dp_it</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.co.jp/dp/B096HQC9Y5/?coliid=I3MVQBGE0PPKGJ&amp;colid=101ESIAGBYQW7&amp;psc=1&amp;ref_=lv_ov_lig_dp_it</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.co.jp/dp/B09FSWGS7L/?coliid=I20SIB1DS1IY7T&amp;colid=101ESIAGBYQW7&amp;psc=1&amp;ref_=lv_ov_lig_dp_it</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.co.jp/dp/B06Y275P7D/?coliid=I28QQE23N0LSFH&amp;colid=101ESIAGBYQW7&amp;psc=1&amp;ref_=lv_ov_lig_dp_it</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -488,163 +536,188 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="6" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="18.71928571428571" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" s="6" t="n"/>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>玄人志向 NVIDIA GeForce RTX3060Ti 搭載 グラフィックボード GDDR6 8GB GALAKURO GAMINGシリーズ GG-RTX3060Ti-E8GB/DF/LHR</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>MSI GeForce RTX 3070 Ti VENTUS 3X 8G OC グラフィックスボード VD7701</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>MSI GeForce RTX 3080 VENTUS 3X PLUS 10G OC LHR グラフィックスボード VD7850</t>
+        </is>
+      </c>
+      <c r="E1" s="7" t="inlineStr">
+        <is>
+          <t>東芝 内蔵HDD 3.5インチ 3TB PCモデル DT01ACA300-2YW 【国内正規代理店品】 2年保証 SATA 6Gbps対応</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="4" t="n">
         <v>25569.3755171875</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="5" t="n">
         <v>50000</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="5" t="n">
         <v>60000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="5" t="n">
         <v>110000</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
-        <v>25569.375517199074</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="E2" s="7" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="4" t="n">
+        <v>25569.37551719907</v>
+      </c>
+      <c r="B3" s="5" t="n">
         <v>60000</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="5" t="n">
         <v>70000</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="n">
         <v>120000</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4">
-        <v>25569.375517210647</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="E3" s="7" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="4" t="n">
+        <v>25569.37551721065</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>70000</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="5" t="n">
         <v>55000</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5" t="n">
         <v>130000</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4">
-        <v>25569.375517222223</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="E4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="4" t="n">
+        <v>25569.37551722222</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>80000</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="5" t="n">
         <v>72000</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="5" t="n">
         <v>100000</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5" t="n">
         <v>8512</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4">
-        <v>25569.375517233795</v>
-      </c>
-      <c r="B6" s="5">
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="4" t="n">
+        <v>25569.3755172338</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>90000</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="5" t="n">
         <v>60000</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="n">
         <v>700000</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="5" t="n">
         <v>9200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4">
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="4" t="n">
         <v>25569.3755171875</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="5" t="n">
         <v>77755</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="5" t="n">
         <v>94000</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="5" t="n">
         <v>124800</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="5" t="n">
         <v>8512</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4">
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="4" t="n">
         <v>25569.3755171875</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="5" t="n">
         <v>77755</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="5" t="n">
         <v>94000</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="5" t="n">
         <v>124800</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5" t="n">
         <v>8512</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4">
-        <v>25569.375521527778</v>
-      </c>
-      <c r="B9" s="5">
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="4" t="n">
+        <v>25569.37552152778</v>
+      </c>
+      <c r="B9" s="5" t="n">
         <v>55657</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5">
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="5" t="n">
         <v>106500</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="5" t="n">
+        <v>16980</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12" t="n">
+        <v>45060.15628704819</v>
+      </c>
+      <c r="B10" t="n">
+        <v>55657</v>
+      </c>
+      <c r="D10" t="n">
+        <v>106500</v>
+      </c>
+      <c r="E10" t="n">
         <v>16980</v>
       </c>
     </row>
